--- a/참고자료/00.테이블명세 양식(오라클).xlsx
+++ b/참고자료/00.테이블명세 양식(오라클).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보 테이블 명세" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="취미정보" sheetId="9" r:id="rId5"/>
     <sheet name="매입매출장" sheetId="10" r:id="rId6"/>
     <sheet name="상품정보" sheetId="11" r:id="rId7"/>
-    <sheet name="거래처정보" sheetId="12" r:id="rId8"/>
+    <sheet name="주문정보" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="220">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -768,59 +768,147 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(거래처정보)테이블 명세서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_BUYER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매관리에서 매입매출 거래처 정보를 관리할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>거리처코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표자명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_ceo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_tel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
+    <t>TBL_ORDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주문정보)테이블 명세서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매관리에서 고객의 주문 상세 정보를 관리할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_CNUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_PCODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_PNAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_QTY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_TOTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> nVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9033,8 +9121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9688,10 +9776,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>185</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>184</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -9701,7 +9789,7 @@
       </c>
       <c r="I1" s="38"/>
       <c r="J1" s="13">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="K1" s="38" t="s">
         <v>11</v>
@@ -9788,19 +9876,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="H5" s="26"/>
       <c r="J5" s="3"/>
@@ -9812,19 +9900,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>173</v>
+        <v>187</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>201</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -9837,19 +9925,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -9862,18 +9950,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="14"/>
+        <v>206</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>215</v>
+      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -9884,10 +9974,21 @@
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -9898,11 +9999,18 @@
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -9913,10 +10021,18 @@
       <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -9928,10 +10044,18 @@
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -9943,10 +10067,18 @@
       <c r="B13" s="10">
         <v>9</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -10053,12 +10185,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/참고자료/00.테이블명세 양식(오라클).xlsx
+++ b/참고자료/00.테이블명세 양식(오라클).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보 테이블 명세" sheetId="2" r:id="rId1"/>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nNUMBER(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nVARCHAR2(125)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -909,6 +905,10 @@
   </si>
   <si>
     <t>CHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1704,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2535,7 +2535,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2581,7 +2581,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -3423,10 +3423,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -3521,19 +3521,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -3544,13 +3544,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>39</v>
@@ -3567,16 +3567,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -3590,16 +3590,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -3613,16 +3613,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -3636,16 +3636,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -4479,10 +4479,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -4504,7 +4504,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="34"/>
@@ -4527,7 +4527,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -4579,19 +4579,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4602,19 +4602,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -4627,16 +4627,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -4650,16 +4650,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -4673,16 +4673,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -4696,16 +4696,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -5539,10 +5539,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -5564,7 +5564,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="34"/>
@@ -5587,7 +5587,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -5639,19 +5639,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -5662,16 +5662,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>41</v>
@@ -5687,16 +5687,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -5710,16 +5710,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -5733,7 +5733,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -5750,7 +5750,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -6587,10 +6587,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>108</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>109</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -6612,7 +6612,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="34"/>
@@ -6635,7 +6635,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -6687,13 +6687,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>38</v>
@@ -6702,13 +6702,13 @@
         <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="L5" s="18"/>
     </row>
@@ -6717,19 +6717,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -6742,7 +6742,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -6759,7 +6759,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -7622,10 +7622,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -7647,7 +7647,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="34"/>
@@ -7670,7 +7670,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -7722,24 +7722,24 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7747,26 +7747,26 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7774,19 +7774,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -7799,19 +7799,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -7824,19 +7824,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -7849,26 +7849,26 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7876,19 +7876,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -7901,19 +7901,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -7926,26 +7926,26 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>151</v>
-      </c>
       <c r="G13" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8724,10 +8724,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -8749,7 +8749,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="34"/>
@@ -8772,7 +8772,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -8824,24 +8824,24 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8849,19 +8849,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -8873,16 +8873,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -8890,7 +8890,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8898,16 +8898,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -8915,7 +8915,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8923,25 +8923,25 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9121,7 +9121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -9776,10 +9776,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>184</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>185</v>
       </c>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -9801,7 +9801,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="34"/>
@@ -9824,7 +9824,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -9876,19 +9876,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="H5" s="26"/>
       <c r="J5" s="3"/>
@@ -9900,19 +9900,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -9925,19 +9925,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>219</v>
-      </c>
       <c r="G7" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -9950,19 +9950,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -9975,19 +9975,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -10000,16 +10000,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -10022,16 +10022,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -10045,16 +10045,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -10068,16 +10068,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
